--- a/Code/GEMs/bphB.xlsx
+++ b/Code/GEMs/bphB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\MATLAB\iGEM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AE2C17FE03DEB8F4A79AE5C9F223D2A76500BAD6" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DC357DEA-1C60-47C5-8D57-165349EA0765}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_AE2C17FE03DEB8F4A79AE5C9F223D2A76500BAD6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F776709-831E-42C8-B080-5A99E06F29A2}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L2" s="9">
         <v>1000</v>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L3" s="9">
         <v>1000</v>
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L4" s="9">
         <v>1000</v>
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L5" s="9">
         <v>1000</v>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L6" s="9">
         <v>1000</v>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L7" s="9">
         <v>1000</v>
@@ -995,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L8" s="9">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L9" s="9">
         <v>1000</v>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L10" s="9">
         <v>1000</v>
@@ -1100,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L11" s="9">
         <v>1000</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L12" s="9">
         <v>1000</v>
@@ -1170,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L13" s="9">
         <v>1000</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L14" s="9">
         <v>1000</v>
@@ -1240,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>
@@ -1275,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L16" s="9">
         <v>1000</v>
@@ -1310,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L17" s="9">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L18" s="9">
         <v>1000</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L19" s="9">
         <v>1000</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L20" s="9">
         <v>1000</v>
